--- a/design/chitiet/OrderManager.xlsx
+++ b/design/chitiet/OrderManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="96">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -60,13 +60,13 @@
     <t xml:space="preserve">Màn hình (ID)</t>
   </si>
   <si>
-    <t xml:space="preserve">add product </t>
+    <t xml:space="preserve">order manager</t>
   </si>
   <si>
     <t xml:space="preserve">Màn hình (Tên)</t>
   </si>
   <si>
-    <t xml:space="preserve">Màn hình đăng nhập</t>
+    <t xml:space="preserve">Màn hình quản lý hóa đơn </t>
   </si>
   <si>
     <t xml:space="preserve">website bán đồng hồ </t>
@@ -261,9 +261,6 @@
     <t xml:space="preserve">Thái </t>
   </si>
   <si>
-    <t xml:space="preserve">Add product </t>
-  </si>
-  <si>
     <t xml:space="preserve">Lịch sử chỉnh sửa</t>
   </si>
   <si>
@@ -291,13 +288,7 @@
     <t xml:space="preserve">1. Mục đích</t>
   </si>
   <si>
-    <t xml:space="preserve">- Dùng để thêm sản phảm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Người sử dụng nhập thôn tin sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sau khi nhấn thêm sản phảm, trường hợp phát sinh lỗi thì hiển thị thông báo lỗi, ngược lại di chuyển đến màn hình chính</t>
+    <t xml:space="preserve">- Dùng để quản lý đơn hàng </t>
   </si>
   <si>
     <t xml:space="preserve">2. Giới hạn hoạt động</t>
@@ -313,12 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">5. Không bao gồm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Màn hình thêm sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">6. Sơ đồ</t>
@@ -354,13 +339,10 @@
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">M </t>
+    <t xml:space="preserve">Order </t>
   </si>
   <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table danh sách sản phảm </t>
+    <t xml:space="preserve">Table đơn hàng </t>
   </si>
   <si>
     <r>
@@ -405,9 +387,6 @@
   </si>
   <si>
     <t xml:space="preserve">OrderManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Màn hình quản lý hóa đơn </t>
   </si>
   <si>
     <t xml:space="preserve">7. Giao diện màn hình</t>
@@ -485,7 +464,7 @@
     <t xml:space="preserve">danh sách hóa đơn </t>
   </si>
   <si>
-    <t xml:space="preserve">Mã hóa đơn Thơi gian </t>
+    <t xml:space="preserve">Mã hóa đơn</t>
   </si>
   <si>
     <t xml:space="preserve">Thời gian</t>
@@ -914,13 +893,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -936,6 +908,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1407,32 +1386,32 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -1555,23 +1534,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1579,7 +1558,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1885,9 +1864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1901,7 +1880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675360" cy="969480"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1922,9 +1901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1934,7 +1913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177280" y="24338880"/>
-          <a:ext cx="955440" cy="645480"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -1989,13 +1968,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>163800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2004,8 +1983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2582640" y="23725440"/>
-          <a:ext cx="1207800" cy="618120"/>
+          <a:off x="2582640" y="23725080"/>
+          <a:ext cx="1207080" cy="617400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2050,9 +2029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>120960</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2062,7 +2041,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779200" cy="2607840"/>
+          <a:ext cx="2778480" cy="2607120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2094,9 +2073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2106,7 +2085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188000" cy="426600"/>
+          <a:ext cx="1187280" cy="425880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,7 +2124,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Màn hình thêm sản phẩm</a:t>
+            <a:t>Màn hình quản lý hóa đơn </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2164,9 +2143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64440</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2176,7 +2155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="994680" cy="397800"/>
+          <a:ext cx="993960" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2338,9 +2317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>177840</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2350,7 +2329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="913320" cy="398160"/>
+          <a:ext cx="912600" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2406,9 +2385,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2422,7 +2401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675360" cy="969480"/>
+          <a:ext cx="674640" cy="968760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,15 +2416,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>84240</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2454,8 +2433,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3805560" y="23691240"/>
-          <a:ext cx="727920" cy="597600"/>
+          <a:off x="3805200" y="23690880"/>
+          <a:ext cx="727200" cy="596880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2500,9 +2479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
+      <xdr:colOff>126000</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2512,7 +2491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4008600" y="24215040"/>
-          <a:ext cx="955440" cy="645480"/>
+          <a:ext cx="954720" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2552,7 +2531,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Product </a:t>
+            <a:t>Order  </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2576,9 +2555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2588,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816440" cy="417240"/>
+          <a:ext cx="4815720" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,22 +2594,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>118440</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>51120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 2" descr=""/>
+        <xdr:cNvPr id="13" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2639,8 +2618,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="490680" y="1189080"/>
-          <a:ext cx="7776720" cy="3722040"/>
+          <a:off x="186120" y="1038240"/>
+          <a:ext cx="8512920" cy="5282280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2662,14 +2641,14 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO125" activeCellId="0" sqref="AO125"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V148" activeCellId="0" sqref="V148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="60" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -4277,7 +4256,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -4360,7 +4339,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -4419,7 +4398,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="B47" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30" t="s">
@@ -4430,7 +4409,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J47" s="31"/>
       <c r="K47" s="31"/>
@@ -4507,27 +4486,27 @@
       <c r="AC48" s="30"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
       <c r="AJ48" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AK48" s="32"/>
       <c r="AL48" s="32"/>
       <c r="AM48" s="32"/>
       <c r="AN48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO48" s="32"/>
       <c r="AP48" s="32"/>
       <c r="AQ48" s="32"/>
       <c r="AR48" s="32"/>
       <c r="AS48" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AT48" s="32"/>
       <c r="AU48" s="32"/>
@@ -4541,14 +4520,14 @@
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
@@ -6195,7 +6174,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
@@ -6328,7 +6307,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
       <c r="AA83" s="14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="14"/>
@@ -6411,7 +6390,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6465,7 +6444,7 @@
       <c r="A86" s="17"/>
       <c r="B86" s="59"/>
       <c r="C86" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -6517,9 +6496,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="C87" s="60"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -6570,9 +6547,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="60" t="s">
-        <v>40</v>
-      </c>
+      <c r="C88" s="60"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -6673,7 +6648,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -6727,7 +6702,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="63"/>
       <c r="C91" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D91" s="64"/>
       <c r="E91" s="64"/>
@@ -6829,7 +6804,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="61"/>
@@ -6883,7 +6858,7 @@
       <c r="A94" s="17"/>
       <c r="B94" s="63"/>
       <c r="C94" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D94" s="62"/>
       <c r="E94" s="61"/>
@@ -6976,7 +6951,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="64"/>
@@ -7030,7 +7005,7 @@
       <c r="A97" s="17"/>
       <c r="B97" s="28"/>
       <c r="C97" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D97" s="64"/>
       <c r="E97" s="61"/>
@@ -7133,7 +7108,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="64"/>
@@ -7188,7 +7163,7 @@
       <c r="A100" s="17"/>
       <c r="B100" s="28"/>
       <c r="C100" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D100" s="64"/>
       <c r="E100" s="19"/>
@@ -8377,7 +8352,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="14" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="AB123" s="14"/>
       <c r="AC123" s="14"/>
@@ -8393,7 +8368,7 @@
       <c r="AK123" s="15"/>
       <c r="AL123" s="15"/>
       <c r="AM123" s="16" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="AN123" s="16"/>
       <c r="AO123" s="16"/>
@@ -8460,7 +8435,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -9377,7 +9352,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="71" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9534,14 +9509,14 @@
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
       <c r="D146" s="72" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E146" s="72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F146" s="72"/>
       <c r="G146" s="72" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H146" s="72"/>
       <c r="I146" s="72"/>
@@ -9558,11 +9533,11 @@
       <c r="T146" s="72"/>
       <c r="U146" s="72"/>
       <c r="V146" s="72" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="W146" s="72"/>
       <c r="X146" s="73" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y146" s="73"/>
       <c r="Z146" s="73"/>
@@ -9598,18 +9573,18 @@
         <v>1</v>
       </c>
       <c r="E147" s="74" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F147" s="74"/>
       <c r="G147" s="75" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H147" s="76"/>
       <c r="I147" s="76"/>
       <c r="J147" s="76"/>
       <c r="K147" s="77"/>
       <c r="L147" s="78" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M147" s="76"/>
       <c r="N147" s="76"/>
@@ -9621,7 +9596,7 @@
       <c r="T147" s="76"/>
       <c r="U147" s="79"/>
       <c r="V147" s="74" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="W147" s="74"/>
       <c r="X147" s="75"/>
@@ -9658,58 +9633,58 @@
       <c r="D148" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" s="82"/>
-      <c r="G148" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="H148" s="84"/>
-      <c r="I148" s="84"/>
-      <c r="J148" s="84"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M148" s="84"/>
-      <c r="N148" s="84"/>
-      <c r="O148" s="84"/>
-      <c r="P148" s="84"/>
-      <c r="Q148" s="84"/>
-      <c r="R148" s="84"/>
-      <c r="S148" s="84"/>
-      <c r="T148" s="84"/>
-      <c r="U148" s="87"/>
-      <c r="V148" s="81" t="s">
+      <c r="E148" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="74"/>
+      <c r="G148" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" s="82"/>
+      <c r="I148" s="82"/>
+      <c r="J148" s="82"/>
+      <c r="K148" s="83"/>
+      <c r="L148" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="M148" s="82"/>
+      <c r="N148" s="82"/>
+      <c r="O148" s="82"/>
+      <c r="P148" s="82"/>
+      <c r="Q148" s="82"/>
+      <c r="R148" s="82"/>
+      <c r="S148" s="82"/>
+      <c r="T148" s="82"/>
+      <c r="U148" s="85"/>
+      <c r="V148" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="W148" s="82"/>
-      <c r="X148" s="83"/>
-      <c r="Y148" s="84"/>
-      <c r="Z148" s="84"/>
-      <c r="AA148" s="84"/>
-      <c r="AB148" s="84"/>
-      <c r="AC148" s="84"/>
-      <c r="AD148" s="84"/>
-      <c r="AE148" s="84"/>
-      <c r="AF148" s="84"/>
-      <c r="AG148" s="84"/>
-      <c r="AH148" s="84"/>
-      <c r="AI148" s="84"/>
-      <c r="AJ148" s="84"/>
-      <c r="AK148" s="84"/>
-      <c r="AL148" s="84"/>
-      <c r="AM148" s="84"/>
-      <c r="AN148" s="84"/>
-      <c r="AO148" s="84"/>
-      <c r="AP148" s="84"/>
-      <c r="AQ148" s="84"/>
-      <c r="AR148" s="84"/>
-      <c r="AS148" s="84"/>
-      <c r="AT148" s="84"/>
-      <c r="AU148" s="84"/>
-      <c r="AV148" s="87"/>
+      <c r="W148" s="86"/>
+      <c r="X148" s="81"/>
+      <c r="Y148" s="82"/>
+      <c r="Z148" s="82"/>
+      <c r="AA148" s="82"/>
+      <c r="AB148" s="82"/>
+      <c r="AC148" s="82"/>
+      <c r="AD148" s="82"/>
+      <c r="AE148" s="82"/>
+      <c r="AF148" s="82"/>
+      <c r="AG148" s="82"/>
+      <c r="AH148" s="82"/>
+      <c r="AI148" s="82"/>
+      <c r="AJ148" s="82"/>
+      <c r="AK148" s="82"/>
+      <c r="AL148" s="82"/>
+      <c r="AM148" s="82"/>
+      <c r="AN148" s="82"/>
+      <c r="AO148" s="82"/>
+      <c r="AP148" s="82"/>
+      <c r="AQ148" s="82"/>
+      <c r="AR148" s="82"/>
+      <c r="AS148" s="82"/>
+      <c r="AT148" s="82"/>
+      <c r="AU148" s="82"/>
+      <c r="AV148" s="85"/>
       <c r="AW148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9719,50 +9694,50 @@
       <c r="D149" s="80" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="81"/>
-      <c r="F149" s="82"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="84"/>
-      <c r="I149" s="84"/>
-      <c r="J149" s="84"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="84"/>
-      <c r="N149" s="84"/>
-      <c r="O149" s="84"/>
-      <c r="P149" s="84"/>
-      <c r="Q149" s="84"/>
-      <c r="R149" s="84"/>
-      <c r="S149" s="84"/>
-      <c r="T149" s="84"/>
-      <c r="U149" s="87"/>
-      <c r="V149" s="81"/>
-      <c r="W149" s="82"/>
-      <c r="X149" s="83"/>
-      <c r="Y149" s="84"/>
-      <c r="Z149" s="84"/>
-      <c r="AA149" s="84"/>
-      <c r="AB149" s="84"/>
-      <c r="AC149" s="84"/>
-      <c r="AD149" s="84"/>
-      <c r="AE149" s="84"/>
-      <c r="AF149" s="84"/>
-      <c r="AG149" s="84"/>
-      <c r="AH149" s="84"/>
-      <c r="AI149" s="84"/>
-      <c r="AJ149" s="84"/>
-      <c r="AK149" s="84"/>
-      <c r="AL149" s="84"/>
-      <c r="AM149" s="84"/>
-      <c r="AN149" s="84"/>
-      <c r="AO149" s="84"/>
-      <c r="AP149" s="84"/>
-      <c r="AQ149" s="84"/>
-      <c r="AR149" s="84"/>
-      <c r="AS149" s="84"/>
-      <c r="AT149" s="84"/>
-      <c r="AU149" s="84"/>
-      <c r="AV149" s="87"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="87"/>
+      <c r="G149" s="81"/>
+      <c r="H149" s="82"/>
+      <c r="I149" s="82"/>
+      <c r="J149" s="82"/>
+      <c r="K149" s="83"/>
+      <c r="L149" s="84"/>
+      <c r="M149" s="82"/>
+      <c r="N149" s="82"/>
+      <c r="O149" s="82"/>
+      <c r="P149" s="82"/>
+      <c r="Q149" s="82"/>
+      <c r="R149" s="82"/>
+      <c r="S149" s="82"/>
+      <c r="T149" s="82"/>
+      <c r="U149" s="85"/>
+      <c r="V149" s="86"/>
+      <c r="W149" s="87"/>
+      <c r="X149" s="81"/>
+      <c r="Y149" s="82"/>
+      <c r="Z149" s="82"/>
+      <c r="AA149" s="82"/>
+      <c r="AB149" s="82"/>
+      <c r="AC149" s="82"/>
+      <c r="AD149" s="82"/>
+      <c r="AE149" s="82"/>
+      <c r="AF149" s="82"/>
+      <c r="AG149" s="82"/>
+      <c r="AH149" s="82"/>
+      <c r="AI149" s="82"/>
+      <c r="AJ149" s="82"/>
+      <c r="AK149" s="82"/>
+      <c r="AL149" s="82"/>
+      <c r="AM149" s="82"/>
+      <c r="AN149" s="82"/>
+      <c r="AO149" s="82"/>
+      <c r="AP149" s="82"/>
+      <c r="AQ149" s="82"/>
+      <c r="AR149" s="82"/>
+      <c r="AS149" s="82"/>
+      <c r="AT149" s="82"/>
+      <c r="AU149" s="82"/>
+      <c r="AV149" s="85"/>
       <c r="AW149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9772,50 +9747,50 @@
       <c r="D150" s="80" t="n">
         <v>5</v>
       </c>
-      <c r="E150" s="81"/>
-      <c r="F150" s="82"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="84"/>
-      <c r="N150" s="84"/>
-      <c r="O150" s="84"/>
-      <c r="P150" s="84"/>
-      <c r="Q150" s="84"/>
-      <c r="R150" s="84"/>
-      <c r="S150" s="84"/>
-      <c r="T150" s="84"/>
-      <c r="U150" s="87"/>
-      <c r="V150" s="81"/>
-      <c r="W150" s="82"/>
-      <c r="X150" s="83"/>
-      <c r="Y150" s="84"/>
-      <c r="Z150" s="84"/>
-      <c r="AA150" s="84"/>
-      <c r="AB150" s="84"/>
-      <c r="AC150" s="84"/>
-      <c r="AD150" s="84"/>
-      <c r="AE150" s="84"/>
-      <c r="AF150" s="84"/>
-      <c r="AG150" s="84"/>
-      <c r="AH150" s="84"/>
-      <c r="AI150" s="84"/>
-      <c r="AJ150" s="84"/>
-      <c r="AK150" s="84"/>
-      <c r="AL150" s="84"/>
-      <c r="AM150" s="84"/>
-      <c r="AN150" s="84"/>
-      <c r="AO150" s="84"/>
-      <c r="AP150" s="84"/>
-      <c r="AQ150" s="84"/>
-      <c r="AR150" s="84"/>
-      <c r="AS150" s="84"/>
-      <c r="AT150" s="84"/>
-      <c r="AU150" s="84"/>
-      <c r="AV150" s="87"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="87"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="82"/>
+      <c r="I150" s="82"/>
+      <c r="J150" s="82"/>
+      <c r="K150" s="83"/>
+      <c r="L150" s="84"/>
+      <c r="M150" s="82"/>
+      <c r="N150" s="82"/>
+      <c r="O150" s="82"/>
+      <c r="P150" s="82"/>
+      <c r="Q150" s="82"/>
+      <c r="R150" s="82"/>
+      <c r="S150" s="82"/>
+      <c r="T150" s="82"/>
+      <c r="U150" s="85"/>
+      <c r="V150" s="86"/>
+      <c r="W150" s="87"/>
+      <c r="X150" s="81"/>
+      <c r="Y150" s="82"/>
+      <c r="Z150" s="82"/>
+      <c r="AA150" s="82"/>
+      <c r="AB150" s="82"/>
+      <c r="AC150" s="82"/>
+      <c r="AD150" s="82"/>
+      <c r="AE150" s="82"/>
+      <c r="AF150" s="82"/>
+      <c r="AG150" s="82"/>
+      <c r="AH150" s="82"/>
+      <c r="AI150" s="82"/>
+      <c r="AJ150" s="82"/>
+      <c r="AK150" s="82"/>
+      <c r="AL150" s="82"/>
+      <c r="AM150" s="82"/>
+      <c r="AN150" s="82"/>
+      <c r="AO150" s="82"/>
+      <c r="AP150" s="82"/>
+      <c r="AQ150" s="82"/>
+      <c r="AR150" s="82"/>
+      <c r="AS150" s="82"/>
+      <c r="AT150" s="82"/>
+      <c r="AU150" s="82"/>
+      <c r="AV150" s="85"/>
       <c r="AW150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9825,25 +9800,25 @@
       <c r="D151" s="80" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="81"/>
-      <c r="F151" s="82"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="84"/>
-      <c r="I151" s="84"/>
-      <c r="J151" s="84"/>
-      <c r="K151" s="85"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="84"/>
-      <c r="N151" s="84"/>
-      <c r="O151" s="84"/>
-      <c r="P151" s="84"/>
-      <c r="Q151" s="84"/>
-      <c r="R151" s="84"/>
-      <c r="S151" s="84"/>
-      <c r="T151" s="84"/>
-      <c r="U151" s="87"/>
-      <c r="V151" s="81"/>
-      <c r="W151" s="82"/>
+      <c r="E151" s="86"/>
+      <c r="F151" s="87"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="82"/>
+      <c r="I151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="83"/>
+      <c r="L151" s="84"/>
+      <c r="M151" s="82"/>
+      <c r="N151" s="82"/>
+      <c r="O151" s="82"/>
+      <c r="P151" s="82"/>
+      <c r="Q151" s="82"/>
+      <c r="R151" s="82"/>
+      <c r="S151" s="82"/>
+      <c r="T151" s="82"/>
+      <c r="U151" s="85"/>
+      <c r="V151" s="86"/>
+      <c r="W151" s="87"/>
       <c r="X151" s="88"/>
       <c r="Y151" s="89"/>
       <c r="Z151" s="89"/>
@@ -10191,7 +10166,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10341,7 +10316,7 @@
       <c r="AW160" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="208">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -10548,6 +10523,8 @@
     <mergeCell ref="X146:AV146"/>
     <mergeCell ref="E147:F147"/>
     <mergeCell ref="V147:W147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="V148:W148"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10567,8 +10544,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H148" activeCellId="0" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10636,7 +10613,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -10736,7 +10713,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
@@ -10752,7 +10729,7 @@
       <c r="AK3" s="15"/>
       <c r="AL3" s="15"/>
       <c r="AM3" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN3" s="16"/>
       <c r="AO3" s="16"/>
@@ -10817,7 +10794,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11281,7 +11258,7 @@
       </c>
       <c r="AN41" s="6"/>
       <c r="AO41" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -11381,7 +11358,7 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
@@ -11397,7 +11374,7 @@
       <c r="AK43" s="15"/>
       <c r="AL43" s="15"/>
       <c r="AM43" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN43" s="16"/>
       <c r="AO43" s="16"/>
@@ -11418,7 +11395,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11451,7 +11428,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11466,10 +11443,10 @@
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="C48" s="72" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11477,39 +11454,39 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
       <c r="AC48" s="105"/>
       <c r="AD48" s="73" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AE48" s="73"/>
       <c r="AF48" s="73"/>
@@ -11538,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="108" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E49" s="109"/>
       <c r="F49" s="109"/>
@@ -11546,7 +11523,7 @@
       <c r="H49" s="110"/>
       <c r="I49" s="111"/>
       <c r="J49" s="112" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K49" s="110"/>
       <c r="L49" s="110"/>
@@ -11556,15 +11533,15 @@
       <c r="P49" s="110"/>
       <c r="Q49" s="112"/>
       <c r="R49" s="110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S49" s="113"/>
       <c r="T49" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U49" s="107"/>
       <c r="V49" s="108" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W49" s="109"/>
       <c r="X49" s="109"/>
@@ -11601,7 +11578,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E50" s="118"/>
       <c r="F50" s="118"/>
@@ -11609,7 +11586,7 @@
       <c r="H50" s="119"/>
       <c r="I50" s="120"/>
       <c r="J50" s="112" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K50" s="119"/>
       <c r="L50" s="119"/>
@@ -11619,15 +11596,15 @@
       <c r="P50" s="119"/>
       <c r="Q50" s="121"/>
       <c r="R50" s="110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S50" s="122"/>
       <c r="T50" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U50" s="107"/>
       <c r="V50" s="108" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W50" s="118"/>
       <c r="X50" s="118"/>
@@ -11664,7 +11641,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="117" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E51" s="118"/>
       <c r="F51" s="118"/>
@@ -11672,7 +11649,7 @@
       <c r="H51" s="119"/>
       <c r="I51" s="120"/>
       <c r="J51" s="112" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K51" s="119"/>
       <c r="L51" s="119"/>
@@ -11682,15 +11659,15 @@
       <c r="P51" s="119"/>
       <c r="Q51" s="121"/>
       <c r="R51" s="110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S51" s="122"/>
       <c r="T51" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U51" s="107"/>
       <c r="V51" s="108" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W51" s="118"/>
       <c r="X51" s="118"/>
@@ -11727,7 +11704,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="126" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E52" s="127"/>
       <c r="F52" s="127"/>
@@ -11735,7 +11712,7 @@
       <c r="H52" s="128"/>
       <c r="I52" s="129"/>
       <c r="J52" s="112" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K52" s="128"/>
       <c r="L52" s="128"/>
@@ -11745,15 +11722,15 @@
       <c r="P52" s="128"/>
       <c r="Q52" s="130"/>
       <c r="R52" s="110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S52" s="131"/>
       <c r="T52" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U52" s="107"/>
       <c r="V52" s="108" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W52" s="127"/>
       <c r="X52" s="127"/>
@@ -11842,7 +11819,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -11893,10 +11870,10 @@
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
       <c r="C56" s="140" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E56" s="72"/>
       <c r="F56" s="72"/>
@@ -11908,7 +11885,7 @@
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
       <c r="N56" s="141" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O56" s="141"/>
       <c r="P56" s="141"/>
@@ -11920,7 +11897,7 @@
       <c r="V56" s="141"/>
       <c r="W56" s="141"/>
       <c r="X56" s="73" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Y56" s="73"/>
       <c r="Z56" s="73"/>
@@ -11954,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="143" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E57" s="144"/>
       <c r="F57" s="144"/>
@@ -11966,7 +11943,7 @@
       <c r="L57" s="144"/>
       <c r="M57" s="145"/>
       <c r="N57" s="143" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O57" s="144"/>
       <c r="P57" s="144"/>
@@ -12057,7 +12034,7 @@
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="C59" s="149" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D59" s="149"/>
       <c r="E59" s="149"/>
@@ -12110,10 +12087,10 @@
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
       <c r="C60" s="72" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D60" s="151" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E60" s="151"/>
       <c r="F60" s="151"/>
@@ -12125,14 +12102,14 @@
       <c r="L60" s="152"/>
       <c r="M60" s="153"/>
       <c r="N60" s="72" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O60" s="72"/>
       <c r="P60" s="72"/>
       <c r="Q60" s="72"/>
       <c r="R60" s="72"/>
       <c r="S60" s="72" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="T60" s="72"/>
       <c r="U60" s="72"/>
@@ -12149,7 +12126,7 @@
       <c r="AF60" s="72"/>
       <c r="AG60" s="72"/>
       <c r="AH60" s="72" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI60" s="72"/>
       <c r="AJ60" s="72"/>
@@ -12174,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="154" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E61" s="155"/>
       <c r="F61" s="155"/>
@@ -12186,7 +12163,7 @@
       <c r="L61" s="156"/>
       <c r="M61" s="157"/>
       <c r="N61" s="158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O61" s="159"/>
       <c r="P61" s="158"/>
@@ -12231,7 +12208,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="165" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E62" s="166"/>
       <c r="F62" s="166"/>
@@ -12243,7 +12220,7 @@
       <c r="L62" s="167"/>
       <c r="M62" s="168"/>
       <c r="N62" s="158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O62" s="159"/>
       <c r="P62" s="158"/>
@@ -12288,7 +12265,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="154" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E63" s="155"/>
       <c r="F63" s="155"/>
@@ -12300,7 +12277,7 @@
       <c r="L63" s="156"/>
       <c r="M63" s="157"/>
       <c r="N63" s="158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O63" s="159"/>
       <c r="P63" s="158"/>
@@ -12345,7 +12322,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="170" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E64" s="170"/>
       <c r="F64" s="170"/>
@@ -12357,7 +12334,7 @@
       <c r="L64" s="170"/>
       <c r="M64" s="170"/>
       <c r="N64" s="171" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O64" s="172"/>
       <c r="P64" s="171"/>
@@ -12402,7 +12379,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="174" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E65" s="174"/>
       <c r="F65" s="174"/>
@@ -12414,7 +12391,7 @@
       <c r="L65" s="174"/>
       <c r="M65" s="174"/>
       <c r="N65" s="158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O65" s="159"/>
       <c r="P65" s="158"/>
@@ -13307,7 +13284,7 @@
       </c>
       <c r="AN82" s="6"/>
       <c r="AO82" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -13407,7 +13384,7 @@
       <c r="Y84" s="13"/>
       <c r="Z84" s="13"/>
       <c r="AA84" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="14"/>
@@ -13423,7 +13400,7 @@
       <c r="AK84" s="15"/>
       <c r="AL84" s="15"/>
       <c r="AM84" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN84" s="16"/>
       <c r="AO84" s="16"/>
@@ -13453,7 +13430,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13486,7 +13463,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13519,7 +13496,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13581,7 +13558,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13614,7 +13591,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13646,7 +13623,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -14599,7 +14576,7 @@
       </c>
       <c r="AN122" s="6"/>
       <c r="AO122" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
@@ -14699,7 +14676,7 @@
       <c r="Y124" s="13"/>
       <c r="Z124" s="13"/>
       <c r="AA124" s="14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AB124" s="14"/>
       <c r="AC124" s="14"/>
@@ -14715,7 +14692,7 @@
       <c r="AK124" s="15"/>
       <c r="AL124" s="15"/>
       <c r="AM124" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AN124" s="16"/>
       <c r="AO124" s="16"/>
@@ -14761,7 +14738,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14794,7 +14771,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -14878,10 +14855,21 @@
       <c r="AMI128" s="0"/>
       <c r="AMJ128" s="0"/>
     </row>
-    <row r="129" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
-      <c r="B129" s="59"/>
+      <c r="C129" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM129" s="19"/>
+      <c r="AN129" s="19"/>
+      <c r="AO129" s="19"/>
+      <c r="AP129" s="19"/>
+      <c r="AR129" s="19"/>
+      <c r="AS129" s="19"/>
+      <c r="AT129" s="19"/>
+      <c r="AU129" s="19"/>
       <c r="AW129" s="20"/>
+      <c r="AX129" s="1"/>
       <c r="AKN129" s="0"/>
       <c r="AKO129" s="0"/>
       <c r="AKP129" s="0"/>
@@ -14934,17 +14922,70 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="C130" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM130" s="19"/>
-      <c r="AN130" s="19"/>
-      <c r="AO130" s="19"/>
-      <c r="AP130" s="19"/>
-      <c r="AR130" s="19"/>
-      <c r="AS130" s="19"/>
-      <c r="AT130" s="19"/>
-      <c r="AU130" s="19"/>
+      <c r="C130" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E130" s="72"/>
+      <c r="F130" s="72"/>
+      <c r="G130" s="72"/>
+      <c r="H130" s="72"/>
+      <c r="I130" s="72"/>
+      <c r="J130" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="K130" s="104"/>
+      <c r="L130" s="104"/>
+      <c r="M130" s="104"/>
+      <c r="N130" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="O130" s="104"/>
+      <c r="P130" s="104"/>
+      <c r="Q130" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="R130" s="72"/>
+      <c r="S130" s="72"/>
+      <c r="T130" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="U130" s="72"/>
+      <c r="V130" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="W130" s="73"/>
+      <c r="X130" s="73"/>
+      <c r="Y130" s="73"/>
+      <c r="Z130" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA130" s="105"/>
+      <c r="AB130" s="105"/>
+      <c r="AC130" s="105"/>
+      <c r="AD130" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE130" s="73"/>
+      <c r="AF130" s="73"/>
+      <c r="AG130" s="73"/>
+      <c r="AH130" s="73"/>
+      <c r="AI130" s="73"/>
+      <c r="AJ130" s="73"/>
+      <c r="AK130" s="73"/>
+      <c r="AL130" s="73"/>
+      <c r="AM130" s="73"/>
+      <c r="AN130" s="73"/>
+      <c r="AO130" s="73"/>
+      <c r="AP130" s="73"/>
+      <c r="AQ130" s="73"/>
+      <c r="AR130" s="73"/>
+      <c r="AS130" s="73"/>
+      <c r="AT130" s="73"/>
+      <c r="AU130" s="73"/>
+      <c r="AV130" s="73"/>
       <c r="AW130" s="20"/>
       <c r="AX130" s="1"/>
       <c r="AKN130" s="0"/>
@@ -14999,70 +15040,64 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="C131" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D131" s="72" t="s">
+      <c r="C131" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="109"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="110"/>
+      <c r="H131" s="110"/>
+      <c r="I131" s="111"/>
+      <c r="J131" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="72"/>
-      <c r="J131" s="104" t="s">
+      <c r="K131" s="110"/>
+      <c r="L131" s="110"/>
+      <c r="M131" s="110"/>
+      <c r="N131" s="112"/>
+      <c r="O131" s="110"/>
+      <c r="P131" s="110"/>
+      <c r="Q131" s="112"/>
+      <c r="R131" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="K131" s="104"/>
-      <c r="L131" s="104"/>
-      <c r="M131" s="104"/>
-      <c r="N131" s="104" t="s">
+      <c r="S131" s="113"/>
+      <c r="T131" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="O131" s="104"/>
-      <c r="P131" s="104"/>
-      <c r="Q131" s="72" t="s">
+      <c r="U131" s="107"/>
+      <c r="V131" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="R131" s="72"/>
-      <c r="S131" s="72"/>
-      <c r="T131" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="U131" s="72"/>
-      <c r="V131" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="W131" s="73"/>
-      <c r="X131" s="73"/>
-      <c r="Y131" s="73"/>
-      <c r="Z131" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA131" s="105"/>
-      <c r="AB131" s="105"/>
-      <c r="AC131" s="105"/>
-      <c r="AD131" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE131" s="73"/>
-      <c r="AF131" s="73"/>
-      <c r="AG131" s="73"/>
-      <c r="AH131" s="73"/>
-      <c r="AI131" s="73"/>
-      <c r="AJ131" s="73"/>
-      <c r="AK131" s="73"/>
-      <c r="AL131" s="73"/>
-      <c r="AM131" s="73"/>
-      <c r="AN131" s="73"/>
-      <c r="AO131" s="73"/>
-      <c r="AP131" s="73"/>
-      <c r="AQ131" s="73"/>
-      <c r="AR131" s="73"/>
-      <c r="AS131" s="73"/>
-      <c r="AT131" s="73"/>
-      <c r="AU131" s="73"/>
-      <c r="AV131" s="73"/>
+      <c r="W131" s="109"/>
+      <c r="X131" s="109"/>
+      <c r="Y131" s="113"/>
+      <c r="Z131" s="114"/>
+      <c r="AA131" s="109"/>
+      <c r="AB131" s="109"/>
+      <c r="AC131" s="109"/>
+      <c r="AD131" s="108"/>
+      <c r="AE131" s="109"/>
+      <c r="AF131" s="109"/>
+      <c r="AG131" s="109"/>
+      <c r="AH131" s="109"/>
+      <c r="AI131" s="109"/>
+      <c r="AJ131" s="109"/>
+      <c r="AK131" s="109"/>
+      <c r="AL131" s="109"/>
+      <c r="AM131" s="109"/>
+      <c r="AN131" s="109"/>
+      <c r="AO131" s="109"/>
+      <c r="AP131" s="109"/>
+      <c r="AQ131" s="109"/>
+      <c r="AR131" s="109"/>
+      <c r="AS131" s="109"/>
+      <c r="AT131" s="109"/>
+      <c r="AU131" s="109"/>
+      <c r="AV131" s="115"/>
       <c r="AW131" s="20"/>
       <c r="AX131" s="1"/>
       <c r="AKN131" s="0"/>
@@ -15118,63 +15153,63 @@
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
       <c r="C132" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="E132" s="109"/>
-      <c r="F132" s="109"/>
-      <c r="G132" s="110"/>
-      <c r="H132" s="110"/>
-      <c r="I132" s="111"/>
+        <v>2</v>
+      </c>
+      <c r="D132" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="E132" s="118"/>
+      <c r="F132" s="118"/>
+      <c r="G132" s="119"/>
+      <c r="H132" s="119"/>
+      <c r="I132" s="120"/>
       <c r="J132" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="K132" s="110"/>
-      <c r="L132" s="110"/>
-      <c r="M132" s="110"/>
-      <c r="N132" s="112"/>
-      <c r="O132" s="110"/>
-      <c r="P132" s="110"/>
-      <c r="Q132" s="112"/>
+        <v>69</v>
+      </c>
+      <c r="K132" s="119"/>
+      <c r="L132" s="119"/>
+      <c r="M132" s="119"/>
+      <c r="N132" s="121"/>
+      <c r="O132" s="119"/>
+      <c r="P132" s="119"/>
+      <c r="Q132" s="121"/>
       <c r="R132" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="S132" s="113"/>
+        <v>70</v>
+      </c>
+      <c r="S132" s="122"/>
       <c r="T132" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U132" s="107"/>
       <c r="V132" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W132" s="109"/>
-      <c r="X132" s="109"/>
-      <c r="Y132" s="113"/>
-      <c r="Z132" s="114"/>
-      <c r="AA132" s="109"/>
-      <c r="AB132" s="109"/>
-      <c r="AC132" s="109"/>
-      <c r="AD132" s="108"/>
-      <c r="AE132" s="109"/>
-      <c r="AF132" s="109"/>
-      <c r="AG132" s="109"/>
-      <c r="AH132" s="109"/>
-      <c r="AI132" s="109"/>
-      <c r="AJ132" s="109"/>
-      <c r="AK132" s="109"/>
-      <c r="AL132" s="109"/>
-      <c r="AM132" s="109"/>
-      <c r="AN132" s="109"/>
-      <c r="AO132" s="109"/>
-      <c r="AP132" s="109"/>
-      <c r="AQ132" s="109"/>
-      <c r="AR132" s="109"/>
-      <c r="AS132" s="109"/>
-      <c r="AT132" s="109"/>
-      <c r="AU132" s="109"/>
-      <c r="AV132" s="115"/>
+        <v>72</v>
+      </c>
+      <c r="W132" s="118"/>
+      <c r="X132" s="118"/>
+      <c r="Y132" s="122"/>
+      <c r="Z132" s="123"/>
+      <c r="AA132" s="118"/>
+      <c r="AB132" s="118"/>
+      <c r="AC132" s="118"/>
+      <c r="AD132" s="117"/>
+      <c r="AE132" s="118"/>
+      <c r="AF132" s="118"/>
+      <c r="AG132" s="118"/>
+      <c r="AH132" s="118"/>
+      <c r="AI132" s="118"/>
+      <c r="AJ132" s="118"/>
+      <c r="AK132" s="118"/>
+      <c r="AL132" s="118"/>
+      <c r="AM132" s="118"/>
+      <c r="AN132" s="118"/>
+      <c r="AO132" s="118"/>
+      <c r="AP132" s="118"/>
+      <c r="AQ132" s="118"/>
+      <c r="AR132" s="118"/>
+      <c r="AS132" s="118"/>
+      <c r="AT132" s="118"/>
+      <c r="AU132" s="118"/>
+      <c r="AV132" s="124"/>
       <c r="AW132" s="20"/>
       <c r="AX132" s="1"/>
       <c r="AKN132" s="0"/>
@@ -15230,10 +15265,10 @@
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
       <c r="C133" s="107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="117" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E133" s="118"/>
       <c r="F133" s="118"/>
@@ -15241,7 +15276,7 @@
       <c r="H133" s="119"/>
       <c r="I133" s="120"/>
       <c r="J133" s="112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K133" s="119"/>
       <c r="L133" s="119"/>
@@ -15251,20 +15286,20 @@
       <c r="P133" s="119"/>
       <c r="Q133" s="121"/>
       <c r="R133" s="110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S133" s="122"/>
       <c r="T133" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U133" s="107"/>
       <c r="V133" s="108" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W133" s="118"/>
       <c r="X133" s="118"/>
       <c r="Y133" s="122"/>
-      <c r="Z133" s="123"/>
+      <c r="Z133" s="125"/>
       <c r="AA133" s="118"/>
       <c r="AB133" s="118"/>
       <c r="AC133" s="118"/>
@@ -15342,63 +15377,63 @@
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
       <c r="C134" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="D134" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="E134" s="118"/>
-      <c r="F134" s="118"/>
-      <c r="G134" s="119"/>
-      <c r="H134" s="119"/>
-      <c r="I134" s="120"/>
+        <v>4</v>
+      </c>
+      <c r="D134" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="E134" s="127"/>
+      <c r="F134" s="127"/>
+      <c r="G134" s="128"/>
+      <c r="H134" s="128"/>
+      <c r="I134" s="129"/>
       <c r="J134" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="K134" s="119"/>
-      <c r="L134" s="119"/>
-      <c r="M134" s="119"/>
-      <c r="N134" s="121"/>
-      <c r="O134" s="119"/>
-      <c r="P134" s="119"/>
-      <c r="Q134" s="121"/>
+        <v>69</v>
+      </c>
+      <c r="K134" s="128"/>
+      <c r="L134" s="128"/>
+      <c r="M134" s="128"/>
+      <c r="N134" s="130"/>
+      <c r="O134" s="128"/>
+      <c r="P134" s="128"/>
+      <c r="Q134" s="130"/>
       <c r="R134" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="S134" s="122"/>
+        <v>70</v>
+      </c>
+      <c r="S134" s="131"/>
       <c r="T134" s="107" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="U134" s="107"/>
       <c r="V134" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W134" s="118"/>
-      <c r="X134" s="118"/>
-      <c r="Y134" s="122"/>
-      <c r="Z134" s="125"/>
-      <c r="AA134" s="118"/>
-      <c r="AB134" s="118"/>
-      <c r="AC134" s="118"/>
-      <c r="AD134" s="117"/>
-      <c r="AE134" s="118"/>
-      <c r="AF134" s="118"/>
-      <c r="AG134" s="118"/>
-      <c r="AH134" s="118"/>
-      <c r="AI134" s="118"/>
-      <c r="AJ134" s="118"/>
-      <c r="AK134" s="118"/>
-      <c r="AL134" s="118"/>
-      <c r="AM134" s="118"/>
-      <c r="AN134" s="118"/>
-      <c r="AO134" s="118"/>
-      <c r="AP134" s="118"/>
-      <c r="AQ134" s="118"/>
-      <c r="AR134" s="118"/>
-      <c r="AS134" s="118"/>
-      <c r="AT134" s="118"/>
-      <c r="AU134" s="118"/>
-      <c r="AV134" s="124"/>
+        <v>72</v>
+      </c>
+      <c r="W134" s="127"/>
+      <c r="X134" s="127"/>
+      <c r="Y134" s="131"/>
+      <c r="Z134" s="132"/>
+      <c r="AA134" s="127"/>
+      <c r="AB134" s="127"/>
+      <c r="AC134" s="127"/>
+      <c r="AD134" s="126"/>
+      <c r="AE134" s="127"/>
+      <c r="AF134" s="127"/>
+      <c r="AG134" s="127"/>
+      <c r="AH134" s="127"/>
+      <c r="AI134" s="127"/>
+      <c r="AJ134" s="127"/>
+      <c r="AK134" s="127"/>
+      <c r="AL134" s="127"/>
+      <c r="AM134" s="127"/>
+      <c r="AN134" s="127"/>
+      <c r="AO134" s="127"/>
+      <c r="AP134" s="127"/>
+      <c r="AQ134" s="127"/>
+      <c r="AR134" s="127"/>
+      <c r="AS134" s="127"/>
+      <c r="AT134" s="127"/>
+      <c r="AU134" s="127"/>
+      <c r="AV134" s="133"/>
       <c r="AW134" s="20"/>
       <c r="AX134" s="1"/>
       <c r="AKN134" s="0"/>
@@ -15453,64 +15488,52 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="C135" s="107" t="n">
-        <v>4</v>
-      </c>
-      <c r="D135" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="E135" s="127"/>
-      <c r="F135" s="127"/>
-      <c r="G135" s="128"/>
-      <c r="H135" s="128"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="K135" s="128"/>
-      <c r="L135" s="128"/>
-      <c r="M135" s="128"/>
-      <c r="N135" s="130"/>
-      <c r="O135" s="128"/>
-      <c r="P135" s="128"/>
-      <c r="Q135" s="130"/>
-      <c r="R135" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="S135" s="131"/>
-      <c r="T135" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U135" s="107"/>
-      <c r="V135" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="W135" s="127"/>
-      <c r="X135" s="127"/>
-      <c r="Y135" s="131"/>
-      <c r="Z135" s="132"/>
-      <c r="AA135" s="127"/>
-      <c r="AB135" s="127"/>
-      <c r="AC135" s="127"/>
-      <c r="AD135" s="126"/>
-      <c r="AE135" s="127"/>
-      <c r="AF135" s="127"/>
-      <c r="AG135" s="127"/>
-      <c r="AH135" s="127"/>
-      <c r="AI135" s="127"/>
-      <c r="AJ135" s="127"/>
-      <c r="AK135" s="127"/>
-      <c r="AL135" s="127"/>
-      <c r="AM135" s="127"/>
-      <c r="AN135" s="127"/>
-      <c r="AO135" s="127"/>
-      <c r="AP135" s="127"/>
-      <c r="AQ135" s="127"/>
-      <c r="AR135" s="127"/>
-      <c r="AS135" s="127"/>
-      <c r="AT135" s="127"/>
-      <c r="AU135" s="127"/>
-      <c r="AV135" s="133"/>
+      <c r="C135" s="134"/>
+      <c r="D135" s="135"/>
+      <c r="E135" s="135"/>
+      <c r="F135" s="135"/>
+      <c r="G135" s="136"/>
+      <c r="H135" s="136"/>
+      <c r="I135" s="136"/>
+      <c r="J135" s="136"/>
+      <c r="K135" s="136"/>
+      <c r="L135" s="136"/>
+      <c r="M135" s="136"/>
+      <c r="N135" s="136"/>
+      <c r="O135" s="136"/>
+      <c r="P135" s="136"/>
+      <c r="Q135" s="136"/>
+      <c r="R135" s="136"/>
+      <c r="S135" s="135"/>
+      <c r="T135" s="134"/>
+      <c r="U135" s="137"/>
+      <c r="V135" s="135"/>
+      <c r="W135" s="135"/>
+      <c r="X135" s="135"/>
+      <c r="Y135" s="135"/>
+      <c r="Z135" s="134"/>
+      <c r="AA135" s="135"/>
+      <c r="AB135" s="135"/>
+      <c r="AC135" s="135"/>
+      <c r="AD135" s="135"/>
+      <c r="AE135" s="135"/>
+      <c r="AF135" s="135"/>
+      <c r="AG135" s="135"/>
+      <c r="AH135" s="135"/>
+      <c r="AI135" s="135"/>
+      <c r="AJ135" s="135"/>
+      <c r="AK135" s="135"/>
+      <c r="AL135" s="135"/>
+      <c r="AM135" s="135"/>
+      <c r="AN135" s="135"/>
+      <c r="AO135" s="135"/>
+      <c r="AP135" s="135"/>
+      <c r="AQ135" s="135"/>
+      <c r="AR135" s="135"/>
+      <c r="AS135" s="135"/>
+      <c r="AT135" s="135"/>
+      <c r="AU135" s="135"/>
+      <c r="AV135" s="138"/>
       <c r="AW135" s="20"/>
       <c r="AX135" s="1"/>
       <c r="AKN135" s="0"/>
@@ -15565,52 +15588,6 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="C136" s="134"/>
-      <c r="D136" s="135"/>
-      <c r="E136" s="135"/>
-      <c r="F136" s="135"/>
-      <c r="G136" s="136"/>
-      <c r="H136" s="136"/>
-      <c r="I136" s="136"/>
-      <c r="J136" s="136"/>
-      <c r="K136" s="136"/>
-      <c r="L136" s="136"/>
-      <c r="M136" s="136"/>
-      <c r="N136" s="136"/>
-      <c r="O136" s="136"/>
-      <c r="P136" s="136"/>
-      <c r="Q136" s="136"/>
-      <c r="R136" s="136"/>
-      <c r="S136" s="135"/>
-      <c r="T136" s="134"/>
-      <c r="U136" s="137"/>
-      <c r="V136" s="135"/>
-      <c r="W136" s="135"/>
-      <c r="X136" s="135"/>
-      <c r="Y136" s="135"/>
-      <c r="Z136" s="134"/>
-      <c r="AA136" s="135"/>
-      <c r="AB136" s="135"/>
-      <c r="AC136" s="135"/>
-      <c r="AD136" s="135"/>
-      <c r="AE136" s="135"/>
-      <c r="AF136" s="135"/>
-      <c r="AG136" s="135"/>
-      <c r="AH136" s="135"/>
-      <c r="AI136" s="135"/>
-      <c r="AJ136" s="135"/>
-      <c r="AK136" s="135"/>
-      <c r="AL136" s="135"/>
-      <c r="AM136" s="135"/>
-      <c r="AN136" s="135"/>
-      <c r="AO136" s="135"/>
-      <c r="AP136" s="135"/>
-      <c r="AQ136" s="135"/>
-      <c r="AR136" s="135"/>
-      <c r="AS136" s="135"/>
-      <c r="AT136" s="135"/>
-      <c r="AU136" s="135"/>
-      <c r="AV136" s="138"/>
       <c r="AW136" s="20"/>
       <c r="AX136" s="1"/>
       <c r="AKN136" s="0"/>
@@ -15665,6 +15642,53 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
+      <c r="C137" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="19"/>
+      <c r="U137" s="19"/>
+      <c r="V137" s="19"/>
+      <c r="W137" s="139"/>
+      <c r="X137" s="139"/>
+      <c r="Y137" s="139"/>
+      <c r="Z137" s="139"/>
+      <c r="AA137" s="19"/>
+      <c r="AB137" s="19"/>
+      <c r="AC137" s="19"/>
+      <c r="AD137" s="19"/>
+      <c r="AE137" s="139"/>
+      <c r="AF137" s="139"/>
+      <c r="AG137" s="19"/>
+      <c r="AH137" s="19"/>
+      <c r="AI137" s="19"/>
+      <c r="AJ137" s="19"/>
+      <c r="AK137" s="19"/>
+      <c r="AL137" s="19"/>
+      <c r="AM137" s="19"/>
+      <c r="AN137" s="19"/>
+      <c r="AO137" s="19"/>
+      <c r="AP137" s="19"/>
+      <c r="AQ137" s="19"/>
+      <c r="AR137" s="19"/>
+      <c r="AS137" s="19"/>
+      <c r="AT137" s="19"/>
+      <c r="AU137" s="19"/>
       <c r="AW137" s="20"/>
       <c r="AX137" s="1"/>
       <c r="AKN137" s="0"/>
@@ -15719,53 +15743,60 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="C138" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="139"/>
-      <c r="X138" s="139"/>
-      <c r="Y138" s="139"/>
-      <c r="Z138" s="139"/>
-      <c r="AA138" s="19"/>
-      <c r="AB138" s="19"/>
-      <c r="AC138" s="19"/>
-      <c r="AD138" s="19"/>
-      <c r="AE138" s="139"/>
-      <c r="AF138" s="139"/>
-      <c r="AG138" s="19"/>
-      <c r="AH138" s="19"/>
-      <c r="AI138" s="19"/>
-      <c r="AJ138" s="19"/>
-      <c r="AK138" s="19"/>
-      <c r="AL138" s="19"/>
-      <c r="AM138" s="19"/>
-      <c r="AN138" s="19"/>
-      <c r="AO138" s="19"/>
-      <c r="AP138" s="19"/>
-      <c r="AQ138" s="19"/>
-      <c r="AR138" s="19"/>
-      <c r="AS138" s="19"/>
-      <c r="AT138" s="19"/>
-      <c r="AU138" s="19"/>
+      <c r="C138" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="72"/>
+      <c r="H138" s="72"/>
+      <c r="I138" s="72"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="72"/>
+      <c r="L138" s="72"/>
+      <c r="M138" s="72"/>
+      <c r="N138" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="O138" s="141"/>
+      <c r="P138" s="141"/>
+      <c r="Q138" s="141"/>
+      <c r="R138" s="141"/>
+      <c r="S138" s="141"/>
+      <c r="T138" s="141"/>
+      <c r="U138" s="141"/>
+      <c r="V138" s="141"/>
+      <c r="W138" s="141"/>
+      <c r="X138" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y138" s="73"/>
+      <c r="Z138" s="73"/>
+      <c r="AA138" s="73"/>
+      <c r="AB138" s="73"/>
+      <c r="AC138" s="73"/>
+      <c r="AD138" s="73"/>
+      <c r="AE138" s="73"/>
+      <c r="AF138" s="73"/>
+      <c r="AG138" s="73"/>
+      <c r="AH138" s="73"/>
+      <c r="AI138" s="73"/>
+      <c r="AJ138" s="73"/>
+      <c r="AK138" s="73"/>
+      <c r="AL138" s="73"/>
+      <c r="AM138" s="73"/>
+      <c r="AN138" s="73"/>
+      <c r="AO138" s="73"/>
+      <c r="AP138" s="73"/>
+      <c r="AQ138" s="73"/>
+      <c r="AR138" s="73"/>
+      <c r="AS138" s="73"/>
+      <c r="AT138" s="73"/>
+      <c r="AU138" s="73"/>
+      <c r="AV138" s="73"/>
       <c r="AW138" s="20"/>
       <c r="AX138" s="1"/>
       <c r="AKN138" s="0"/>
@@ -15820,60 +15851,58 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="C139" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D139" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="E139" s="72"/>
-      <c r="F139" s="72"/>
-      <c r="G139" s="72"/>
-      <c r="H139" s="72"/>
-      <c r="I139" s="72"/>
-      <c r="J139" s="72"/>
-      <c r="K139" s="72"/>
-      <c r="L139" s="72"/>
-      <c r="M139" s="72"/>
-      <c r="N139" s="141" t="s">
-        <v>73</v>
-      </c>
-      <c r="O139" s="141"/>
-      <c r="P139" s="141"/>
-      <c r="Q139" s="141"/>
-      <c r="R139" s="141"/>
-      <c r="S139" s="141"/>
-      <c r="T139" s="141"/>
-      <c r="U139" s="141"/>
-      <c r="V139" s="141"/>
-      <c r="W139" s="141"/>
-      <c r="X139" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y139" s="73"/>
-      <c r="Z139" s="73"/>
-      <c r="AA139" s="73"/>
-      <c r="AB139" s="73"/>
-      <c r="AC139" s="73"/>
-      <c r="AD139" s="73"/>
-      <c r="AE139" s="73"/>
-      <c r="AF139" s="73"/>
-      <c r="AG139" s="73"/>
-      <c r="AH139" s="73"/>
-      <c r="AI139" s="73"/>
-      <c r="AJ139" s="73"/>
-      <c r="AK139" s="73"/>
-      <c r="AL139" s="73"/>
-      <c r="AM139" s="73"/>
-      <c r="AN139" s="73"/>
-      <c r="AO139" s="73"/>
-      <c r="AP139" s="73"/>
-      <c r="AQ139" s="73"/>
-      <c r="AR139" s="73"/>
-      <c r="AS139" s="73"/>
-      <c r="AT139" s="73"/>
-      <c r="AU139" s="73"/>
-      <c r="AV139" s="73"/>
+      <c r="C139" s="142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="E139" s="144"/>
+      <c r="F139" s="144"/>
+      <c r="G139" s="144"/>
+      <c r="H139" s="144"/>
+      <c r="I139" s="144"/>
+      <c r="J139" s="144"/>
+      <c r="K139" s="144"/>
+      <c r="L139" s="144"/>
+      <c r="M139" s="145"/>
+      <c r="N139" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="O139" s="144"/>
+      <c r="P139" s="144"/>
+      <c r="Q139" s="144"/>
+      <c r="R139" s="144"/>
+      <c r="S139" s="144"/>
+      <c r="T139" s="144"/>
+      <c r="U139" s="144"/>
+      <c r="V139" s="144"/>
+      <c r="W139" s="145"/>
+      <c r="X139" s="143"/>
+      <c r="Y139" s="146"/>
+      <c r="Z139" s="146"/>
+      <c r="AA139" s="146"/>
+      <c r="AB139" s="144"/>
+      <c r="AC139" s="144"/>
+      <c r="AD139" s="144"/>
+      <c r="AE139" s="144"/>
+      <c r="AF139" s="146"/>
+      <c r="AG139" s="146"/>
+      <c r="AH139" s="144"/>
+      <c r="AI139" s="144"/>
+      <c r="AJ139" s="144"/>
+      <c r="AK139" s="144"/>
+      <c r="AL139" s="144"/>
+      <c r="AM139" s="144"/>
+      <c r="AN139" s="144"/>
+      <c r="AO139" s="144"/>
+      <c r="AP139" s="144"/>
+      <c r="AQ139" s="144"/>
+      <c r="AR139" s="144"/>
+      <c r="AS139" s="144"/>
+      <c r="AT139" s="144"/>
+      <c r="AU139" s="144"/>
+      <c r="AV139" s="145"/>
       <c r="AW139" s="20"/>
       <c r="AX139" s="1"/>
       <c r="AKN139" s="0"/>
@@ -15928,58 +15957,52 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="C140" s="142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" s="143" t="s">
-        <v>85</v>
-      </c>
-      <c r="E140" s="144"/>
-      <c r="F140" s="144"/>
-      <c r="G140" s="144"/>
-      <c r="H140" s="144"/>
-      <c r="I140" s="144"/>
-      <c r="J140" s="144"/>
-      <c r="K140" s="144"/>
-      <c r="L140" s="144"/>
-      <c r="M140" s="145"/>
-      <c r="N140" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="O140" s="144"/>
-      <c r="P140" s="144"/>
-      <c r="Q140" s="144"/>
-      <c r="R140" s="144"/>
-      <c r="S140" s="144"/>
-      <c r="T140" s="144"/>
-      <c r="U140" s="144"/>
-      <c r="V140" s="144"/>
-      <c r="W140" s="145"/>
-      <c r="X140" s="143"/>
-      <c r="Y140" s="146"/>
-      <c r="Z140" s="146"/>
-      <c r="AA140" s="146"/>
-      <c r="AB140" s="144"/>
-      <c r="AC140" s="144"/>
-      <c r="AD140" s="144"/>
-      <c r="AE140" s="144"/>
-      <c r="AF140" s="146"/>
-      <c r="AG140" s="146"/>
-      <c r="AH140" s="144"/>
-      <c r="AI140" s="144"/>
-      <c r="AJ140" s="144"/>
-      <c r="AK140" s="144"/>
-      <c r="AL140" s="144"/>
-      <c r="AM140" s="144"/>
-      <c r="AN140" s="144"/>
-      <c r="AO140" s="144"/>
-      <c r="AP140" s="144"/>
-      <c r="AQ140" s="144"/>
-      <c r="AR140" s="144"/>
-      <c r="AS140" s="144"/>
-      <c r="AT140" s="144"/>
-      <c r="AU140" s="144"/>
-      <c r="AV140" s="145"/>
+      <c r="C140" s="147"/>
+      <c r="D140" s="148"/>
+      <c r="E140" s="148"/>
+      <c r="F140" s="148"/>
+      <c r="G140" s="148"/>
+      <c r="H140" s="148"/>
+      <c r="I140" s="148"/>
+      <c r="J140" s="148"/>
+      <c r="K140" s="148"/>
+      <c r="L140" s="148"/>
+      <c r="M140" s="148"/>
+      <c r="N140" s="148"/>
+      <c r="O140" s="148"/>
+      <c r="P140" s="148"/>
+      <c r="Q140" s="148"/>
+      <c r="R140" s="148"/>
+      <c r="S140" s="148"/>
+      <c r="T140" s="148"/>
+      <c r="U140" s="148"/>
+      <c r="V140" s="148"/>
+      <c r="W140" s="148"/>
+      <c r="X140" s="148"/>
+      <c r="Y140" s="147"/>
+      <c r="Z140" s="147"/>
+      <c r="AA140" s="147"/>
+      <c r="AB140" s="148"/>
+      <c r="AC140" s="148"/>
+      <c r="AD140" s="148"/>
+      <c r="AE140" s="148"/>
+      <c r="AF140" s="147"/>
+      <c r="AG140" s="147"/>
+      <c r="AH140" s="148"/>
+      <c r="AI140" s="148"/>
+      <c r="AJ140" s="148"/>
+      <c r="AK140" s="148"/>
+      <c r="AL140" s="148"/>
+      <c r="AM140" s="148"/>
+      <c r="AN140" s="148"/>
+      <c r="AO140" s="148"/>
+      <c r="AP140" s="148"/>
+      <c r="AQ140" s="148"/>
+      <c r="AR140" s="148"/>
+      <c r="AS140" s="148"/>
+      <c r="AT140" s="148"/>
+      <c r="AU140" s="148"/>
+      <c r="AV140" s="148"/>
       <c r="AW140" s="20"/>
       <c r="AX140" s="1"/>
       <c r="AKN140" s="0"/>
@@ -16034,52 +16057,54 @@
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="C141" s="147"/>
-      <c r="D141" s="148"/>
-      <c r="E141" s="148"/>
-      <c r="F141" s="148"/>
-      <c r="G141" s="148"/>
-      <c r="H141" s="148"/>
-      <c r="I141" s="148"/>
-      <c r="J141" s="148"/>
-      <c r="K141" s="148"/>
-      <c r="L141" s="148"/>
-      <c r="M141" s="148"/>
-      <c r="N141" s="148"/>
-      <c r="O141" s="148"/>
-      <c r="P141" s="148"/>
-      <c r="Q141" s="148"/>
-      <c r="R141" s="148"/>
-      <c r="S141" s="148"/>
-      <c r="T141" s="148"/>
-      <c r="U141" s="148"/>
-      <c r="V141" s="148"/>
-      <c r="W141" s="148"/>
-      <c r="X141" s="148"/>
-      <c r="Y141" s="147"/>
-      <c r="Z141" s="147"/>
-      <c r="AA141" s="147"/>
-      <c r="AB141" s="148"/>
-      <c r="AC141" s="148"/>
-      <c r="AD141" s="148"/>
-      <c r="AE141" s="148"/>
-      <c r="AF141" s="147"/>
-      <c r="AG141" s="147"/>
-      <c r="AH141" s="148"/>
-      <c r="AI141" s="148"/>
-      <c r="AJ141" s="148"/>
-      <c r="AK141" s="148"/>
-      <c r="AL141" s="148"/>
-      <c r="AM141" s="148"/>
-      <c r="AN141" s="148"/>
-      <c r="AO141" s="148"/>
-      <c r="AP141" s="148"/>
-      <c r="AQ141" s="148"/>
-      <c r="AR141" s="148"/>
-      <c r="AS141" s="148"/>
-      <c r="AT141" s="148"/>
-      <c r="AU141" s="148"/>
-      <c r="AV141" s="148"/>
+      <c r="C141" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="D141" s="149"/>
+      <c r="E141" s="149"/>
+      <c r="F141" s="149"/>
+      <c r="G141" s="149"/>
+      <c r="H141" s="149"/>
+      <c r="I141" s="149"/>
+      <c r="J141" s="149"/>
+      <c r="K141" s="149"/>
+      <c r="L141" s="149"/>
+      <c r="M141" s="149"/>
+      <c r="N141" s="149"/>
+      <c r="O141" s="149"/>
+      <c r="P141" s="149"/>
+      <c r="Q141" s="149"/>
+      <c r="R141" s="149"/>
+      <c r="S141" s="149"/>
+      <c r="T141" s="149"/>
+      <c r="U141" s="149"/>
+      <c r="V141" s="149"/>
+      <c r="W141" s="149"/>
+      <c r="X141" s="149"/>
+      <c r="Y141" s="149"/>
+      <c r="Z141" s="149"/>
+      <c r="AA141" s="149"/>
+      <c r="AB141" s="149"/>
+      <c r="AC141" s="149"/>
+      <c r="AD141" s="149"/>
+      <c r="AE141" s="149"/>
+      <c r="AF141" s="149"/>
+      <c r="AG141" s="149"/>
+      <c r="AH141" s="149"/>
+      <c r="AI141" s="149"/>
+      <c r="AJ141" s="149"/>
+      <c r="AK141" s="149"/>
+      <c r="AL141" s="149"/>
+      <c r="AM141" s="150"/>
+      <c r="AN141" s="150"/>
+      <c r="AO141" s="150"/>
+      <c r="AP141" s="150"/>
+      <c r="AQ141" s="149"/>
+      <c r="AR141" s="150"/>
+      <c r="AS141" s="150"/>
+      <c r="AT141" s="150"/>
+      <c r="AU141" s="150"/>
+      <c r="AV141" s="149"/>
       <c r="AW141" s="20"/>
       <c r="AX141" s="1"/>
       <c r="AKN141" s="0"/>
@@ -16134,54 +16159,62 @@
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="C142" s="149" t="s">
-        <v>87</v>
-      </c>
-      <c r="D142" s="149"/>
-      <c r="E142" s="149"/>
-      <c r="F142" s="149"/>
-      <c r="G142" s="149"/>
-      <c r="H142" s="149"/>
-      <c r="I142" s="149"/>
-      <c r="J142" s="149"/>
-      <c r="K142" s="149"/>
-      <c r="L142" s="149"/>
-      <c r="M142" s="149"/>
-      <c r="N142" s="149"/>
-      <c r="O142" s="149"/>
-      <c r="P142" s="149"/>
-      <c r="Q142" s="149"/>
-      <c r="R142" s="149"/>
-      <c r="S142" s="149"/>
-      <c r="T142" s="149"/>
-      <c r="U142" s="149"/>
-      <c r="V142" s="149"/>
-      <c r="W142" s="149"/>
-      <c r="X142" s="149"/>
-      <c r="Y142" s="149"/>
-      <c r="Z142" s="149"/>
-      <c r="AA142" s="149"/>
-      <c r="AB142" s="149"/>
-      <c r="AC142" s="149"/>
-      <c r="AD142" s="149"/>
-      <c r="AE142" s="149"/>
-      <c r="AF142" s="149"/>
-      <c r="AG142" s="149"/>
-      <c r="AH142" s="149"/>
-      <c r="AI142" s="149"/>
-      <c r="AJ142" s="149"/>
-      <c r="AK142" s="149"/>
-      <c r="AL142" s="149"/>
-      <c r="AM142" s="150"/>
-      <c r="AN142" s="150"/>
-      <c r="AO142" s="150"/>
-      <c r="AP142" s="150"/>
-      <c r="AQ142" s="149"/>
-      <c r="AR142" s="150"/>
-      <c r="AS142" s="150"/>
-      <c r="AT142" s="150"/>
-      <c r="AU142" s="150"/>
-      <c r="AV142" s="149"/>
+      <c r="C142" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="E142" s="151"/>
+      <c r="F142" s="151"/>
+      <c r="G142" s="151"/>
+      <c r="H142" s="151"/>
+      <c r="I142" s="151"/>
+      <c r="J142" s="152"/>
+      <c r="K142" s="152"/>
+      <c r="L142" s="152"/>
+      <c r="M142" s="153"/>
+      <c r="N142" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="O142" s="72"/>
+      <c r="P142" s="72"/>
+      <c r="Q142" s="72"/>
+      <c r="R142" s="72"/>
+      <c r="S142" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="T142" s="72"/>
+      <c r="U142" s="72"/>
+      <c r="V142" s="72"/>
+      <c r="W142" s="72"/>
+      <c r="X142" s="72"/>
+      <c r="Y142" s="72"/>
+      <c r="Z142" s="72"/>
+      <c r="AA142" s="72"/>
+      <c r="AB142" s="72"/>
+      <c r="AC142" s="72"/>
+      <c r="AD142" s="72"/>
+      <c r="AE142" s="72"/>
+      <c r="AF142" s="72"/>
+      <c r="AG142" s="72"/>
+      <c r="AH142" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI142" s="72"/>
+      <c r="AJ142" s="72"/>
+      <c r="AK142" s="72"/>
+      <c r="AL142" s="72"/>
+      <c r="AM142" s="72"/>
+      <c r="AN142" s="72"/>
+      <c r="AO142" s="72"/>
+      <c r="AP142" s="72"/>
+      <c r="AQ142" s="72"/>
+      <c r="AR142" s="72"/>
+      <c r="AS142" s="72"/>
+      <c r="AT142" s="72"/>
+      <c r="AU142" s="72"/>
+      <c r="AV142" s="72"/>
       <c r="AW142" s="20"/>
       <c r="AX142" s="1"/>
       <c r="AKN142" s="0"/>
@@ -16236,62 +16269,58 @@
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="C143" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D143" s="151" t="s">
-        <v>69</v>
-      </c>
-      <c r="E143" s="151"/>
-      <c r="F143" s="151"/>
-      <c r="G143" s="151"/>
-      <c r="H143" s="151"/>
-      <c r="I143" s="151"/>
-      <c r="J143" s="152"/>
-      <c r="K143" s="152"/>
-      <c r="L143" s="152"/>
-      <c r="M143" s="153"/>
-      <c r="N143" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="O143" s="72"/>
-      <c r="P143" s="72"/>
-      <c r="Q143" s="72"/>
-      <c r="R143" s="72"/>
-      <c r="S143" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="T143" s="72"/>
-      <c r="U143" s="72"/>
-      <c r="V143" s="72"/>
-      <c r="W143" s="72"/>
-      <c r="X143" s="72"/>
-      <c r="Y143" s="72"/>
-      <c r="Z143" s="72"/>
-      <c r="AA143" s="72"/>
-      <c r="AB143" s="72"/>
-      <c r="AC143" s="72"/>
-      <c r="AD143" s="72"/>
-      <c r="AE143" s="72"/>
-      <c r="AF143" s="72"/>
-      <c r="AG143" s="72"/>
-      <c r="AH143" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI143" s="72"/>
-      <c r="AJ143" s="72"/>
-      <c r="AK143" s="72"/>
-      <c r="AL143" s="72"/>
-      <c r="AM143" s="72"/>
-      <c r="AN143" s="72"/>
-      <c r="AO143" s="72"/>
-      <c r="AP143" s="72"/>
-      <c r="AQ143" s="72"/>
-      <c r="AR143" s="72"/>
-      <c r="AS143" s="72"/>
-      <c r="AT143" s="72"/>
-      <c r="AU143" s="72"/>
-      <c r="AV143" s="72"/>
+      <c r="C143" s="107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143" s="155"/>
+      <c r="F143" s="155"/>
+      <c r="G143" s="156"/>
+      <c r="H143" s="156"/>
+      <c r="I143" s="156"/>
+      <c r="J143" s="156"/>
+      <c r="K143" s="156"/>
+      <c r="L143" s="156"/>
+      <c r="M143" s="157"/>
+      <c r="N143" s="158" t="s">
+        <v>72</v>
+      </c>
+      <c r="O143" s="159"/>
+      <c r="P143" s="158"/>
+      <c r="Q143" s="158"/>
+      <c r="R143" s="160"/>
+      <c r="S143" s="154"/>
+      <c r="T143" s="155"/>
+      <c r="U143" s="155"/>
+      <c r="V143" s="155"/>
+      <c r="W143" s="155"/>
+      <c r="X143" s="155"/>
+      <c r="Y143" s="155"/>
+      <c r="Z143" s="161"/>
+      <c r="AA143" s="155"/>
+      <c r="AB143" s="155"/>
+      <c r="AC143" s="155"/>
+      <c r="AD143" s="155"/>
+      <c r="AE143" s="155"/>
+      <c r="AF143" s="155"/>
+      <c r="AG143" s="162"/>
+      <c r="AH143" s="163"/>
+      <c r="AI143" s="155"/>
+      <c r="AJ143" s="155"/>
+      <c r="AK143" s="155"/>
+      <c r="AL143" s="155"/>
+      <c r="AM143" s="155"/>
+      <c r="AN143" s="155"/>
+      <c r="AO143" s="155"/>
+      <c r="AP143" s="155"/>
+      <c r="AQ143" s="155"/>
+      <c r="AR143" s="155"/>
+      <c r="AS143" s="155"/>
+      <c r="AT143" s="155"/>
+      <c r="AU143" s="155"/>
+      <c r="AV143" s="164"/>
       <c r="AW143" s="20"/>
       <c r="AX143" s="1"/>
       <c r="AKN143" s="0"/>
@@ -16347,22 +16376,22 @@
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="C144" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" s="154" t="s">
-        <v>90</v>
-      </c>
-      <c r="E144" s="155"/>
-      <c r="F144" s="155"/>
-      <c r="G144" s="156"/>
-      <c r="H144" s="156"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="156"/>
-      <c r="K144" s="156"/>
-      <c r="L144" s="156"/>
-      <c r="M144" s="157"/>
+        <v>2</v>
+      </c>
+      <c r="D144" s="165" t="s">
+        <v>84</v>
+      </c>
+      <c r="E144" s="166"/>
+      <c r="F144" s="166"/>
+      <c r="G144" s="167"/>
+      <c r="H144" s="167"/>
+      <c r="I144" s="167"/>
+      <c r="J144" s="167"/>
+      <c r="K144" s="167"/>
+      <c r="L144" s="167"/>
+      <c r="M144" s="168"/>
       <c r="N144" s="158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O144" s="159"/>
       <c r="P144" s="158"/>
@@ -16453,22 +16482,22 @@
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
       <c r="C145" s="107" t="n">
-        <v>2</v>
-      </c>
-      <c r="D145" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="E145" s="166"/>
-      <c r="F145" s="166"/>
-      <c r="G145" s="167"/>
-      <c r="H145" s="167"/>
-      <c r="I145" s="167"/>
-      <c r="J145" s="167"/>
-      <c r="K145" s="167"/>
-      <c r="L145" s="167"/>
-      <c r="M145" s="168"/>
+        <v>3</v>
+      </c>
+      <c r="D145" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="E145" s="155"/>
+      <c r="F145" s="155"/>
+      <c r="G145" s="156"/>
+      <c r="H145" s="156"/>
+      <c r="I145" s="156"/>
+      <c r="J145" s="156"/>
+      <c r="K145" s="156"/>
+      <c r="L145" s="156"/>
+      <c r="M145" s="157"/>
       <c r="N145" s="158" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O145" s="159"/>
       <c r="P145" s="158"/>
@@ -16558,58 +16587,58 @@
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
-      <c r="C146" s="107" t="n">
-        <v>3</v>
-      </c>
-      <c r="D146" s="154" t="s">
-        <v>92</v>
-      </c>
-      <c r="E146" s="155"/>
-      <c r="F146" s="155"/>
-      <c r="G146" s="156"/>
-      <c r="H146" s="156"/>
-      <c r="I146" s="156"/>
-      <c r="J146" s="156"/>
-      <c r="K146" s="156"/>
-      <c r="L146" s="156"/>
-      <c r="M146" s="157"/>
-      <c r="N146" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="O146" s="159"/>
-      <c r="P146" s="158"/>
-      <c r="Q146" s="158"/>
-      <c r="R146" s="160"/>
-      <c r="S146" s="154"/>
-      <c r="T146" s="155"/>
-      <c r="U146" s="155"/>
-      <c r="V146" s="155"/>
-      <c r="W146" s="155"/>
-      <c r="X146" s="155"/>
-      <c r="Y146" s="155"/>
-      <c r="Z146" s="161"/>
-      <c r="AA146" s="155"/>
-      <c r="AB146" s="155"/>
-      <c r="AC146" s="155"/>
-      <c r="AD146" s="155"/>
-      <c r="AE146" s="155"/>
-      <c r="AF146" s="155"/>
-      <c r="AG146" s="162"/>
-      <c r="AH146" s="163"/>
-      <c r="AI146" s="155"/>
-      <c r="AJ146" s="155"/>
-      <c r="AK146" s="155"/>
-      <c r="AL146" s="155"/>
-      <c r="AM146" s="155"/>
-      <c r="AN146" s="155"/>
-      <c r="AO146" s="155"/>
-      <c r="AP146" s="155"/>
-      <c r="AQ146" s="155"/>
-      <c r="AR146" s="155"/>
-      <c r="AS146" s="155"/>
-      <c r="AT146" s="155"/>
-      <c r="AU146" s="155"/>
-      <c r="AV146" s="164"/>
+      <c r="C146" s="169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D146" s="170" t="s">
+        <v>86</v>
+      </c>
+      <c r="E146" s="170"/>
+      <c r="F146" s="170"/>
+      <c r="G146" s="170"/>
+      <c r="H146" s="170"/>
+      <c r="I146" s="170"/>
+      <c r="J146" s="170"/>
+      <c r="K146" s="170"/>
+      <c r="L146" s="170"/>
+      <c r="M146" s="170"/>
+      <c r="N146" s="171" t="s">
+        <v>72</v>
+      </c>
+      <c r="O146" s="172"/>
+      <c r="P146" s="171"/>
+      <c r="Q146" s="171"/>
+      <c r="R146" s="173"/>
+      <c r="S146" s="174"/>
+      <c r="T146" s="174"/>
+      <c r="U146" s="174"/>
+      <c r="V146" s="174"/>
+      <c r="W146" s="174"/>
+      <c r="X146" s="174"/>
+      <c r="Y146" s="174"/>
+      <c r="Z146" s="174"/>
+      <c r="AA146" s="174"/>
+      <c r="AB146" s="174"/>
+      <c r="AC146" s="174"/>
+      <c r="AD146" s="174"/>
+      <c r="AE146" s="174"/>
+      <c r="AF146" s="174"/>
+      <c r="AG146" s="174"/>
+      <c r="AH146" s="174"/>
+      <c r="AI146" s="174"/>
+      <c r="AJ146" s="174"/>
+      <c r="AK146" s="174"/>
+      <c r="AL146" s="174"/>
+      <c r="AM146" s="174"/>
+      <c r="AN146" s="174"/>
+      <c r="AO146" s="174"/>
+      <c r="AP146" s="174"/>
+      <c r="AQ146" s="174"/>
+      <c r="AR146" s="174"/>
+      <c r="AS146" s="174"/>
+      <c r="AT146" s="174"/>
+      <c r="AU146" s="174"/>
+      <c r="AV146" s="174"/>
       <c r="AW146" s="20"/>
       <c r="AX146" s="1"/>
       <c r="AKN146" s="0"/>
@@ -16665,27 +16694,27 @@
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
       <c r="C147" s="169" t="n">
-        <v>4</v>
-      </c>
-      <c r="D147" s="170" t="s">
-        <v>93</v>
-      </c>
-      <c r="E147" s="170"/>
-      <c r="F147" s="170"/>
-      <c r="G147" s="170"/>
-      <c r="H147" s="170"/>
-      <c r="I147" s="170"/>
-      <c r="J147" s="170"/>
-      <c r="K147" s="170"/>
-      <c r="L147" s="170"/>
-      <c r="M147" s="170"/>
-      <c r="N147" s="171" t="s">
-        <v>79</v>
-      </c>
-      <c r="O147" s="172"/>
-      <c r="P147" s="171"/>
-      <c r="Q147" s="171"/>
-      <c r="R147" s="173"/>
+        <v>5</v>
+      </c>
+      <c r="D147" s="174" t="s">
+        <v>87</v>
+      </c>
+      <c r="E147" s="174"/>
+      <c r="F147" s="174"/>
+      <c r="G147" s="174"/>
+      <c r="H147" s="174"/>
+      <c r="I147" s="174"/>
+      <c r="J147" s="174"/>
+      <c r="K147" s="174"/>
+      <c r="L147" s="174"/>
+      <c r="M147" s="174"/>
+      <c r="N147" s="158" t="s">
+        <v>72</v>
+      </c>
+      <c r="O147" s="159"/>
+      <c r="P147" s="158"/>
+      <c r="Q147" s="158"/>
+      <c r="R147" s="160"/>
       <c r="S147" s="174"/>
       <c r="T147" s="174"/>
       <c r="U147" s="174"/>
@@ -16770,58 +16799,14 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
-      <c r="C148" s="169" t="n">
-        <v>5</v>
-      </c>
-      <c r="D148" s="174" t="s">
-        <v>94</v>
-      </c>
-      <c r="E148" s="174"/>
-      <c r="F148" s="174"/>
-      <c r="G148" s="174"/>
-      <c r="H148" s="174"/>
-      <c r="I148" s="174"/>
-      <c r="J148" s="174"/>
-      <c r="K148" s="174"/>
-      <c r="L148" s="174"/>
-      <c r="M148" s="174"/>
-      <c r="N148" s="158" t="s">
-        <v>79</v>
-      </c>
-      <c r="O148" s="159"/>
-      <c r="P148" s="158"/>
-      <c r="Q148" s="158"/>
-      <c r="R148" s="160"/>
-      <c r="S148" s="174"/>
-      <c r="T148" s="174"/>
-      <c r="U148" s="174"/>
-      <c r="V148" s="174"/>
-      <c r="W148" s="174"/>
-      <c r="X148" s="174"/>
-      <c r="Y148" s="174"/>
-      <c r="Z148" s="174"/>
-      <c r="AA148" s="174"/>
-      <c r="AB148" s="174"/>
-      <c r="AC148" s="174"/>
-      <c r="AD148" s="174"/>
-      <c r="AE148" s="174"/>
-      <c r="AF148" s="174"/>
-      <c r="AG148" s="174"/>
-      <c r="AH148" s="174"/>
-      <c r="AI148" s="174"/>
-      <c r="AJ148" s="174"/>
-      <c r="AK148" s="174"/>
-      <c r="AL148" s="174"/>
-      <c r="AM148" s="174"/>
-      <c r="AN148" s="174"/>
-      <c r="AO148" s="174"/>
-      <c r="AP148" s="174"/>
-      <c r="AQ148" s="174"/>
-      <c r="AR148" s="174"/>
-      <c r="AS148" s="174"/>
-      <c r="AT148" s="174"/>
-      <c r="AU148" s="174"/>
-      <c r="AV148" s="174"/>
+      <c r="AM148" s="19"/>
+      <c r="AN148" s="19"/>
+      <c r="AO148" s="19"/>
+      <c r="AP148" s="19"/>
+      <c r="AR148" s="19"/>
+      <c r="AS148" s="19"/>
+      <c r="AT148" s="19"/>
+      <c r="AU148" s="19"/>
       <c r="AW148" s="20"/>
       <c r="AX148" s="1"/>
       <c r="AKN148" s="0"/>
@@ -17139,7 +17124,7 @@
     <row r="153" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
       <c r="B153" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AW153" s="20"/>
       <c r="AKN153" s="0"/>
@@ -17909,7 +17894,7 @@
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
       <c r="D168" s="177" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>
@@ -18169,31 +18154,31 @@
     <mergeCell ref="AA124:AG124"/>
     <mergeCell ref="AH124:AL124"/>
     <mergeCell ref="AM124:AW124"/>
-    <mergeCell ref="D131:I131"/>
-    <mergeCell ref="J131:M131"/>
-    <mergeCell ref="N131:P131"/>
-    <mergeCell ref="Q131:S131"/>
+    <mergeCell ref="D130:I130"/>
+    <mergeCell ref="J130:M130"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="Q130:S130"/>
+    <mergeCell ref="T130:U130"/>
+    <mergeCell ref="V130:Y130"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AV130"/>
     <mergeCell ref="T131:U131"/>
-    <mergeCell ref="V131:Y131"/>
-    <mergeCell ref="Z131:AC131"/>
-    <mergeCell ref="AD131:AV131"/>
     <mergeCell ref="T132:U132"/>
     <mergeCell ref="T133:U133"/>
     <mergeCell ref="T134:U134"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D139:M139"/>
-    <mergeCell ref="N139:W139"/>
-    <mergeCell ref="X139:AV139"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="N143:R143"/>
-    <mergeCell ref="S143:AG143"/>
-    <mergeCell ref="AH143:AV143"/>
+    <mergeCell ref="D138:M138"/>
+    <mergeCell ref="N138:W138"/>
+    <mergeCell ref="X138:AV138"/>
+    <mergeCell ref="D142:I142"/>
+    <mergeCell ref="N142:R142"/>
+    <mergeCell ref="S142:AG142"/>
+    <mergeCell ref="AH142:AV142"/>
+    <mergeCell ref="D146:M146"/>
+    <mergeCell ref="S146:AG146"/>
+    <mergeCell ref="AH146:AV146"/>
     <mergeCell ref="D147:M147"/>
     <mergeCell ref="S147:AG147"/>
     <mergeCell ref="AH147:AV147"/>
-    <mergeCell ref="D148:M148"/>
-    <mergeCell ref="S148:AG148"/>
-    <mergeCell ref="AH148:AV148"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
